--- a/trunk/2013/Thong tin chung.xlsx
+++ b/trunk/2013/Thong tin chung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin" sheetId="5" r:id="rId1"/>
@@ -562,9 +562,6 @@
     <t>FB: bum.clover</t>
   </si>
   <si>
-    <t>huucaoco_giraffe1910@yahoo.com</t>
-  </si>
-  <si>
     <t>susu_uoplanh_7893@yahoo.com</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
   </si>
   <si>
     <t>nhocty_tcg@yahoo.com</t>
-  </si>
-  <si>
-    <t>thanhthekids113@yahoo.com.vn</t>
   </si>
   <si>
     <t>nuocmat_thiensu_1309@yahoo.com.vn</t>
@@ -808,6 +802,12 @@
 - Chuẩn bị giờ chầu cuối tháng.
 - Lên kế hoạch chương trình sinh hoạt đầu tháng (trò chơi vân động, hành trình sa mạc…) và phổ biến cho các anh chị khác.</t>
     </r>
+  </si>
+  <si>
+    <t>huoucaoco_giraffe1910@yahoo.com</t>
+  </si>
+  <si>
+    <t>thanhthekids113@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -1218,72 +1218,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,36 +1228,102 @@
     <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,18 +1659,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -1763,7 +1763,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>170</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>164</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>167</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2343,7 +2343,9 @@
         <f t="shared" si="0"/>
         <v>Giuse Bùi Phú Thiên</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26">
+        <v>33622</v>
+      </c>
       <c r="G24" s="27">
         <v>40987</v>
       </c>
@@ -2416,7 +2418,7 @@
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2447,7 +2449,7 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2471,7 +2473,7 @@
         <v>34359</v>
       </c>
       <c r="G28" s="27">
-        <v>41136</v>
+        <v>41160</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>163</v>
@@ -2480,7 +2482,7 @@
         <v>173</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2526,8 +2528,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2535,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2558,47 +2564,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="N7" s="3"/>
@@ -2639,171 +2645,171 @@
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="K9" s="37" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="K9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="Q9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="V9" s="37" t="s">
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="V9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="AA9" s="37" t="s">
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="AA9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AF9" s="44" t="s">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AF9" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AG9" s="44"/>
+      <c r="AG9" s="55"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="F10" s="39" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="K10" s="39" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="K10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="Q10" s="39" t="s">
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="Q10" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="V10" s="39" t="s">
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="V10" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="AA10" s="39" t="s">
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="AA10" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="F11" s="41" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="F11" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="K11" s="41" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="K11" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="Q11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="V11" s="41" t="s">
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="V11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="AA11" s="41" t="s">
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="AA11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AF11" s="46" t="s">
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AF11" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AG11" s="47"/>
+      <c r="AG11" s="51"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="F12" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="K12" s="41" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="K12" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="Q12" s="41" t="s">
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="Q12" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="V12" s="41" t="s">
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="V12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="AA12" s="41" t="s">
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="AA12" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AF12" s="46" t="s">
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AF12" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="47"/>
+      <c r="AG12" s="51"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -2826,16 +2832,16 @@
       <c r="W13" s="23"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="14"/>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AF13" s="46" t="s">
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AF13" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG13" s="47"/>
+      <c r="AG13" s="51"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
@@ -2844,10 +2850,10 @@
       <c r="S14" s="10"/>
       <c r="X14" s="10"/>
       <c r="AC14" s="10"/>
-      <c r="AF14" s="46" t="s">
+      <c r="AF14" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AG14" s="47"/>
+      <c r="AG14" s="51"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
@@ -2862,286 +2868,250 @@
       <c r="X15" s="9"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="9"/>
-      <c r="AF15" s="46" t="s">
+      <c r="AF15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AG15" s="47"/>
+      <c r="AG15" s="51"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="60"/>
+      <c r="F16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="K16" s="40" t="s">
+      <c r="I16" s="60"/>
+      <c r="K16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="38" t="s">
+      <c r="L16" s="59"/>
+      <c r="M16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="Q16" s="40" t="s">
+      <c r="N16" s="60"/>
+      <c r="Q16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="38" t="s">
+      <c r="R16" s="59"/>
+      <c r="S16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="38"/>
-      <c r="V16" s="40" t="s">
+      <c r="T16" s="60"/>
+      <c r="V16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="W16" s="40"/>
-      <c r="X16" s="38" t="s">
+      <c r="W16" s="59"/>
+      <c r="X16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" s="38"/>
-      <c r="AA16" s="40" t="s">
+      <c r="Y16" s="60"/>
+      <c r="AA16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="38" t="s">
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AD16" s="38"/>
-      <c r="AF16" s="46" t="s">
+      <c r="AD16" s="60"/>
+      <c r="AF16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AG16" s="47"/>
+      <c r="AG16" s="51"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="49"/>
+      <c r="F17" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="K17" s="50" t="s">
+      <c r="I17" s="49"/>
+      <c r="K17" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52" t="s">
+      <c r="L17" s="46"/>
+      <c r="M17" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="N17" s="53"/>
-      <c r="Q17" s="50" t="s">
+      <c r="N17" s="49"/>
+      <c r="Q17" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52" t="s">
+      <c r="R17" s="46"/>
+      <c r="S17" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="V17" s="50" t="s">
+      <c r="T17" s="49"/>
+      <c r="V17" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="W17" s="51"/>
-      <c r="X17" s="52" t="s">
+      <c r="W17" s="46"/>
+      <c r="X17" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="Y17" s="53"/>
-      <c r="AA17" s="50" t="s">
+      <c r="Y17" s="49"/>
+      <c r="AA17" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="52" t="s">
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AD17" s="53"/>
-      <c r="AF17" s="46" t="s">
+      <c r="AD17" s="49"/>
+      <c r="AF17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AG17" s="47"/>
+      <c r="AG17" s="51"/>
     </row>
     <row r="18" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="67" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="73" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="67" t="s">
+      <c r="I18" s="58"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="R18" s="58"/>
+      <c r="S18" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" s="58"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="W18" s="58"/>
+      <c r="X18" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="67" t="s">
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD18" s="65"/>
+    </row>
+    <row r="19" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" s="63"/>
+      <c r="M19" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="N18" s="68"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="67" t="s">
+      <c r="N19" s="63"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="R19" s="63"/>
+      <c r="S19" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="67" t="s">
+      <c r="T19" s="63"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="T18" s="68"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="67" t="s">
+      <c r="W19" s="63"/>
+      <c r="X19" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD18" s="70"/>
-    </row>
-    <row r="19" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="R19" s="72"/>
-      <c r="S19" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="T19" s="72"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="W19" s="72"/>
-      <c r="X19" s="71" t="s">
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="71" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD19" s="72"/>
+      <c r="AD19" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF9:AG10"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
@@ -3157,23 +3127,59 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q12:T12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:D12 F10:I12 K10:N12 Q10:T12 V10:Y12 AA10:AD13 M3 M6">
@@ -3216,280 +3222,286 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="66"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="66"/>
     </row>
     <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="54"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="69" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="68"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="68"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="55"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="66"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="66"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="68" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="68"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="68"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="55"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="67" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="66" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="66"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="66"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="66"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="66"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="68"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="68"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="68"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="55"/>
+      <c r="C32" s="68"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="67" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="66"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="66"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="66"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="66"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="54"/>
+      <c r="C38" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A14:A17"/>
@@ -3498,12 +3510,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38">
@@ -3533,146 +3539,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>10</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>11</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="B5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>190</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>12</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58" t="s">
-        <v>190</v>
+      <c r="B6" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>3</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="B9" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>4</v>
       </c>
-      <c r="B10" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="B11" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3699,131 +3705,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="A1" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="74">
         <v>10</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74">
         <v>11</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74">
         <v>12</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74">
         <v>1</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63">
+      <c r="A4" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41">
         <v>41186</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="41">
         <v>41193</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="41">
         <v>41200</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="41">
         <v>41207</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="41">
         <v>41214</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="41">
         <v>41221</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="41">
         <v>41228</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="41">
         <v>41235</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="41">
         <v>41242</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="41">
         <v>41249</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="41">
         <v>41256</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="41">
         <v>41263</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="41">
         <v>41270</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="41">
         <v>41277</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="41">
         <v>41284</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="41">
         <v>41291</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="41">
         <v>41298</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="41">
         <v>41305</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="43"/>
+      <c r="A5" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="73"/>
       <c r="C5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -3839,27 +3845,27 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="43"/>
+      <c r="A6" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="73"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
@@ -3871,29 +3877,29 @@
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
       <c r="P6" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="43"/>
+      <c r="A7" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="73"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -3909,10 +3915,10 @@
       <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="39"/>
+      <c r="A8" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="52"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -3920,13 +3926,13 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
@@ -3939,10 +3945,10 @@
       <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="39"/>
+      <c r="A9" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="52"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -3953,10 +3959,10 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
@@ -3967,10 +3973,10 @@
       <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="39"/>
+      <c r="A10" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="52"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -3983,10 +3989,10 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -3995,98 +4001,98 @@
       <c r="T10" s="35"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="64">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="74">
         <v>2</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74">
         <v>3</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64">
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74">
         <v>4</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64">
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74">
         <v>5</v>
       </c>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63">
+      <c r="A14" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
         <v>41312</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="41">
         <v>41319</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="41">
         <v>41326</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="41">
         <v>41333</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="41">
         <v>41340</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="41">
         <v>41347</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="41">
         <v>41354</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="41">
         <v>41361</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="41">
         <v>41368</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="41">
         <v>41375</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="41">
         <v>41382</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="41">
         <v>41389</v>
       </c>
-      <c r="O14" s="63">
+      <c r="O14" s="41">
         <v>41396</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="41">
         <v>41403</v>
       </c>
-      <c r="Q14" s="63">
+      <c r="Q14" s="41">
         <v>41410</v>
       </c>
-      <c r="R14" s="63">
+      <c r="R14" s="41">
         <v>41417</v>
       </c>
-      <c r="S14" s="63">
+      <c r="S14" s="41">
         <v>41424</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="43"/>
+      <c r="A15" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="73"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -4096,10 +4102,10 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
@@ -4110,10 +4116,10 @@
       <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="43"/>
+      <c r="A16" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="73"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -4125,10 +4131,10 @@
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
@@ -4137,17 +4143,17 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="43"/>
+      <c r="A17" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="73"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -4158,25 +4164,25 @@
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="39"/>
+      <c r="A18" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="52"/>
       <c r="C18" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -4191,20 +4197,20 @@
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="39"/>
+      <c r="A19" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="52"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -4212,10 +4218,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
@@ -4228,19 +4234,19 @@
       <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="39"/>
+      <c r="A20" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="52"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
@@ -4255,36 +4261,42 @@
       <c r="S20" s="35"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="42"/>
     </row>
     <row r="23" spans="1:23" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
+      <c r="B23" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:T1"/>
@@ -4301,12 +4313,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:T10 C15:S20">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
